--- a/报销相关资料/第四次报销/中国海洋大学文献资源采购登记明细表.xlsx
+++ b/报销相关资料/第四次报销/中国海洋大学文献资源采购登记明细表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\srdp\TimeManagerNew\TimeManager\报销相关资料\第四次报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B776643-D3C2-4DF3-AA4D-608842890EAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3E08D-0B4D-40D9-B791-8661AF59E9A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,30 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家行政学院出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-5150-2077-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考研数学复习全书·数学一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学基础过关660题·数学一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-5693-0977-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安交通大学出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件工程到导论（第6版）（21世纪软件工程专业规划教材）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,58 +200,6 @@
   </si>
   <si>
     <t>978-7-1153-6103-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年王道计算机专业考研：数据结构+操作系统+组成原理+计算机网络（共四册）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子工业出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字图像处理（第三版）（英文版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-1213-0540-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人机交互基础教程（第3版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-3024-2745-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译原理（第三版）陈意云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-0404-0491-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等教育出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-0404-0579-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译原理（第三版）习题精选与解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-7-0404-0664-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库系统概论（第5版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -910,30 +834,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="G7" s="1">
-        <v>99.8</v>
+        <v>39.5</v>
       </c>
       <c r="H7" s="1">
-        <v>43.23</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -945,51 +869,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G8" s="1">
-        <v>79.8</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1">
-        <v>34.57</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
@@ -997,48 +912,39 @@
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G9" s="1">
-        <v>39.5</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1">
-        <v>30</v>
+        <v>41.8</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F10" s="1">
         <v>2014</v>
       </c>
       <c r="G10" s="1">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
-        <v>42.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1047,268 +953,6 @@
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>26487072</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G11" s="1">
-        <v>225</v>
-      </c>
-      <c r="H11" s="1">
-        <v>191.2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G12" s="1">
-        <v>89</v>
-      </c>
-      <c r="H12" s="1">
-        <v>59.12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G13" s="1">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G14" s="1">
-        <v>39</v>
-      </c>
-      <c r="H14" s="1">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G15" s="1">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G16" s="1">
-        <v>42</v>
-      </c>
-      <c r="H16" s="1">
-        <v>29.82</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G17" s="1">
-        <v>58</v>
-      </c>
-      <c r="H17" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G18" s="1">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
         <v>1</v>
       </c>
     </row>
